--- a/P0023/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0023/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0023\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0023/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CE44C6-ED3D-4601-80EF-E8F95DFD2705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{68CE44C6-ED3D-4601-80EF-E8F95DFD2705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51123897-EC2D-4D1B-BA0A-B10A02341744}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -98,136 +98,136 @@
     <t>PR0001</t>
   </si>
   <si>
-    <t>1208178-000-ZWS-0021 Data Collection and Analysis_c3.pdf</t>
+    <t>1208178-000-ZWS-0021 Data Collection and Analysis_c3</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0023/02_PRODUCTOS/Informes Deltares/Informes anteriores/1208178-000-ZWS-0021 Data Collection and Analysis_c3.pdf</t>
   </si>
   <si>
+    <t>Deltares</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe describe los productos necesarios para la implementación de un modelo hidrodinámico de 1D-2D con capacidad de modelado de inundaciones bidimensional para la región de La Mojana. </t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>El Fondo Adaptación ha asignado a Deltares la implementación de un sistema de modelado para La Mojana en cooperación conjunta entre Deltares y Fonda de Adaptación (Contrato de Consultoría 244-2013). Esta asignación incluye la implementación de un modelo hidrodinámico de 1D-2D con capacidad de modelado de inundaciones bidimensional para la región de La Mojana. El modelo se desarrolla en cooperación conjunta entre Deltares y la oficina técnica de La Mojana del Fonda Adaptación. La asignación también incluye la capacitación, transferencia de conocimientos y entrenamiento en el lugar de trabajo del personal de la oficina técnica para asegurar que estén en el nivel técnico requerido para manejar, modificar o ampliar el modelo y realizar simulaciones de escenarios para la región de La Mojana.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>El documento presenta una recopilación valiosa de datos hidro-meteorológicos y un enfoque metódico para la construcción de un modelo hidrodinámico en la región de La Mojana. Sin embargo, no se presentan archivos de Modelo para ratificar la información.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recopilación de datos, análisis de datos, La Mojana, inundaciones. </t>
+  </si>
+  <si>
+    <t>PR0002</t>
+  </si>
+  <si>
+    <t>1208178-000-ZWS-0008 Model Construction final draft</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0023/02_PRODUCTOS/1208178-000-ZWS-0008 Model Construction final v2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este documento corresponde al informe “La Mojana Flood Study”, el cual presenta un resumen de la construcción conceptual del modelo hidrodinámico SOBEK 1D/2D, con capacidad de modelado de inundaciones bidimensional para la región de La Mojana. Presenta una simulación preliminar del modelo hidrodinámico. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el documento se presenta un contexto geográfico de la región de La Mojana, y un contexto hidrológico y de drenajes. Se presenta de manera conceptual y resumida el modelo hidrológico (SAC-SMA), la calibración y validación esperadas. Posteriormente, se describen las principales ventajas de usar el modelo hidrodinámico SOBEK 1D/2D y la motivación de su selección. Se esboza la implementación de SOBEK 1D/2D en términos de arquitectura, dominio, nodos de frontera. Se incluye una simulación preliminar (sin calibración). Se mencionan las sesiones de capacitación impartidas al equipo técnico. Se presentan los anexos al interior del documento como la descripción de las ecuaciones matemáticas usadas por los modelos seleccionados. </t>
+  </si>
+  <si>
+    <t>El informe carece de información sobre la disponibilidad de datos que podrían afectar la calidad y la precisión del modelo final. El documento es relevante para la toma de decisiones, ya que proporciona un marco claro para la gestión de inundaciones y la planificación de escenarios, lo que puede ser crucial para la mitigación de riesgos en la región.</t>
+  </si>
+  <si>
+    <t>Conceptualización modelo hidrodinámico, modelo hidrológico, acople de modelos, selección de modelo, simulaciones preliminares.</t>
+  </si>
+  <si>
+    <t>PR0003</t>
+  </si>
+  <si>
+    <t>1208178-000-ZWS-0008 Inception Report final.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0023/02_PRODUCTOS/Informes Deltares/Informes anteriores/1208178-000-ZWS-0008 Inception Report final.pdf</t>
+  </si>
+  <si>
+    <t>Paolo Reggiani</t>
+  </si>
+  <si>
+    <t>Mohamed Yossef</t>
+  </si>
+  <si>
+    <t>Eelco Verschelling</t>
+  </si>
+  <si>
+    <t>El informe tiene como objetivo principal establecer un modelo hidrodinámico que permita simular y analizar el comportamiento de las inundaciones en la zona de la Mojana, facilitando así la toma de decisiones para la mitigación de riesgos. El documento se estructura de la siguiente manera.1. Introducción: se presenta el contexto del estudio, incluyendo antecedentes históricos y la necesidad de un enfoque sistemático para la gestión de inundaciones en La Mojana. Se destacan las características geográficas y climáticas de la región, que abarca varios municipios de los departamentos de Sucre y Córdoba. 2. Geografía y clima: se analizan las condiciones geográficas de La Mojana, que incluye un sistema fluvial principal y un sistema de drenaje secundario. Se discuten las características climáticas que influyen en el comportamiento hidrológico de la región. 3. Sistema hidráulico: Se revisan estudios hidráulicos previos, como la colaboración entre HIMAT y MITCH (1971-1977) y otros estudios realizados por universidades locales. Esto proporciona un marco de referencia para el desarrollo del nuevo modelo. 4. Enfoque propuesto: Se describe la metodología para la construcción del modelo, que incluye la adquisición de datos, la creación de series temporales de observaciones y la recopilación de datos de terreno digital. Se especifica la configuración de modelos unidimensionales (1-D) y bidimensionales (2-D) para simular el comportamiento del agua en la región. 5. Análisis de escenarios: Se plantean diferentes escenarios de inundación que serán analizados mediante el modelo, permitiendo evaluar la extensión y el impacto de las inundaciones bajo diversas condiciones. 6. Actividades de capacitación: se incluye un componente de capacitación y transferencia de conocimientos para el personal de la Oficina Técnica de La Mojana, asegurando que estén capacitados para gestionar y modificar el modelo, así como para realizar simulaciones de escenarios. 7. Planificación y distribución del trabajo: se detalla la distribución de tareas y entregables del proyecto, con un cronograma que abarca desde la fase de inicio hasta la entrega final del modelo y el informe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El informe tiene como objetivo principal establecer un modelo hidrodinámico que permita simular y analizar el comportamiento de las inundaciones en la zona de la Mojana, facilitando así la toma de decisiones para la mitigación de riesgos. El estudio emplea herramientas de Sistemas de Información Geográfica (GIS) para la recopilación y análisis de datos, así como software especializado para la modelación hidráulica. Se prevé la calibración y verificación de los modelos mediante datos históricos y observaciones en campo. Los resultados claves de este informe fueron los siguientes: se desarrolló un modelo hidrodinámico unidimensional (1-D) y bidimensional (2-D) que simula el comportamiento del agua en la región, permitiendo una mejor comprensión de las dinámicas de inundación. Se realizó una exhaustiva recopilación de datos, incluyendo series temporales de observaciones y datos de terreno digital, que son esenciales para la calibración y validación del modelo. Se definieron múltiples escenarios de inundación que serán analizados para evaluar el impacto potencial en diferentes áreas de La Mojana, lo que permitirá anticipar y mitigar riesgos.  Se estableció un programa de capacitación para el personal de la Oficina Técnica de La Mojana, asegurando que cuenten con las habilidades necesarias para operar y modificar el modelo. </t>
+  </si>
+  <si>
+    <t>La calidad de los datos digitales de terreno es insuficiente, lo que podría limitar la precisión del modelo hidrodinámico propuesto.</t>
+  </si>
+  <si>
+    <t>Reporte inicial de un modelo Sobek 1D-2D, inundaciones, capacitación, modelo hidrodinámico, La Mojana, gestión de riesgo, simulación, datos hidrológicos, mitigación de riesgo</t>
+  </si>
+  <si>
+    <t>PR0004</t>
+  </si>
+  <si>
+    <t>1206824-000-ZWS-0017-v3-Flood risk management for La Mojana</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0023/02_PRODUCTOS/1206824-000-ZWS-0017-v3-Flood risk management for La Mojana.pdf</t>
+  </si>
+  <si>
+    <t>Erik Mosselman</t>
+  </si>
+  <si>
+    <t>Matthijs Kok</t>
+  </si>
+  <si>
+    <t>Hans Leenen</t>
+  </si>
+  <si>
+    <t>Meindert Van</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento aborda un análisis exhaustivo sobre la gestión del riesgo de inundaciones en la región de La Mojana, Colombia. Este estudio se centra en la identificación de intervenciones efectivas para mitigar el impacto de las inundaciones en áreas vulnerables, abarcando varios municipios y departamentos relevantes, incluyendo Sucre y Córdoba, que son críticos en la cuenca del río Cauca. Entre los temas tratados se destacaron: análisis hidrológicos, una modelación hidrodinámica (creación de un modelo hidrodinámico unidimensional 1D), diseños de diques y estructuras de control, mapas de inundaciones preliminares y la participación de comunidades locales en el proceso de toma de decisiones, utilizando herramientas interactivas que permitan a los no especialistas comprender las intervenciones propuestas y su viabilidad </t>
+  </si>
+  <si>
+    <t>El objetivo principal del documento fue proporcionar un marco de referencia para la implementación de medidas de gestión del riesgo de inundaciones, promoviendo un enfoque participativo que involucre a las comunidades locales y a los diferentes actores interesados en la región de la Mojana. Las metodologías empleadas incluyeron análisis estadísticos de datos hidrológicos, modelación matemática y la utilización de software especializado para la simulación de escenarios de inundación. Además, se propone un enfoque de planificación colaborativa, inspirado en el "Planning Kit" utilizado en los Países Bajos, que busca democratizar el proceso de toma de decisiones. En cuanto a los resultados mas relevantes del estudio, se realizó una evaluación hidrológica donde se identificaron patrones significativos en las descargas del río Cauca, con un aumento en la frecuencia e intensidad de eventos de inundación, especialmente durante fenómenos climáticos como El Niño y La Niña, seguidamente se desarrolló un modelo hidrodinámico que permite simular el comportamiento del sistema fluvial, proporcionando información valiosa para la planificación de infraestructuras de control de inundaciones. Se recomendó la construcción de diques y compuertas con un nivel de seguridad superior a 1/25 años, lo que permitirá un mejor control del flujo de agua y la protección de áreas críticas, además se elaboraron mapas preliminares de inundación que identifican las áreas más vulnerables, facilitando la planificación de medidas de mitigación y respuesta ante emergencias y por último, destacó la importancia de involucrar a las comunidades locales en el proceso de toma de decisiones, lo que contribuye a una mejor aceptación y efectividad de las medidas propuestas. El estudio concluyó que la gestión del riesgo de inundaciones en La Mojana requiere un enfoque integral que combine análisis técnico con la participación activa de las comunidades. Se enfatiza que las medidas de mitigación deben ser adaptativas y considerar las variaciones climáticas a largo plazo. Además, se subraya la necesidad de mejorar la calidad de los datos hidrológicos y de elevación para optimizar los modelos de inundación.</t>
+  </si>
+  <si>
+    <t>Se evidencia la falta de un enfoque completamente basado en el riesgo y la ausencia de normas claras para la construcción de diques en Colombia, lo que podría comprometer la efectividad de las recomendaciones . Además, aunque se presentan datos relevantes sobre las características de los caudales y eventos extremos, el documento podría beneficiarse de una mayor profundización en la relación entre las dinámicas hídricas de La Mojana y sus ríos adyacentes</t>
+  </si>
+  <si>
+    <t>Gestión de riesgo de inundaciones, recomendaciones, informes Universidad Nacional.</t>
+  </si>
+  <si>
+    <t>PR0005</t>
+  </si>
+  <si>
+    <t>1208178-000-ZWS-0028-r-La Mojana Flood Study.pdf</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0023/02_PRODUCTOS/Informes Deltares/Informe de Calibracion/1208178-000-ZWS-0028-r-La Mojana Flood Study.pdf</t>
+  </si>
+  <si>
     <t>Didrik Meijer</t>
   </si>
   <si>
-    <t>Deltares</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El informe describe los productos necesarios para la implementación de un modelo hidrodinámico de 1D-2D con capacidad de modelado de inundaciones bidimensional para la región de La Mojana. </t>
-  </si>
-  <si>
-    <t>Informe</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>El Fondo de Adaptación ha asignado a Deltares la implementación de un sistema de modelado para La Mojana en cooperación conjunta entre Deltares y Fonda de Adaptación (Contrato de Consultoría 244-2013). Esta asignación incluye la implementación de un modelo hidrodinámico de 1D-2D con capacidad de modelado de inundaciones bidimensional para la región de La Mojana. El modelo se desarrolla en cooperación conjunta entre Deltares y la Oficina Técnica de La Mojana de Fonda de Adaptación. La asignación también incluye la capacitación, transferencia de conocimientos y entrenamiento en el lugar de trabajo del personal de la Oficina Técnica para asegurar que estén en el nivel técnico requerido para manejar, modificar o ampliar el modelo y realizar simulaciones de escenarios para la región de La Mojana.</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>El documento presenta una recopilación valiosa de datos hidro-meteorológicos y un enfoque metódico para la construcción de un modelo hidrodinámico en la región de La Mojana. Sin embargo, no se presentan archivos de Modelo para ratificar la información.</t>
-  </si>
-  <si>
-    <t>Recopilación de Datos, Análisis de Datos La Mojana, Estudio de Inundaciones</t>
-  </si>
-  <si>
-    <t>PR0002</t>
-  </si>
-  <si>
-    <t>1208178-000-ZWS-0008 Model Construction final draft</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0023/02_PRODUCTOS/1208178-000-ZWS-0008 Model Construction final v2.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este documento presenta un resumen de la construcción conceptual del modelo hidrodinámico SOBEK 1D/2D, con capacidad de modelado de inundaciones bidimensional para la región de La Mojana. Presenta una simulación preliminar del modelo hidrodinámico. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En el documento se presenta un contexto geográfico de la región de La Mojana, y un contexto hidrológico y de drenajes. Se presenta de manera conceptual y resumida el modelo hidrológico (SAC-SMA), la calibración y validación esperadas. Posteriormente se describen las principales ventajas de usar el modelo hidrodinámico SOBEK 1D/2D y la motivación de su selección. Se esboza la implementación de SOBEK 1D/2D en terminos de arquitectura, dominio, nodos de frontera. Se incluye una simulacion preliminar (sin calibración). Se mencionan las sesiones de capacitacion impartidas al equipo técnico. Se presentan los anexos al interior del documento como la descripción de las ecuaciones matemáticas usadas por los modelos seleccionados. </t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>Se observan la falta de información sobre la disponibilidad de datos que podrían afectar la calidad y la precisión del modelo final. El documento es relevante para la toma de decisiones, ya que proporciona un marco claro para la gestión de inundaciones y la planificación de escenarios, lo que puede ser crucial para la mitigación de riesgos en la región.</t>
-  </si>
-  <si>
-    <t>Conceptualización modelo hidrodinámico, modelo hidrológico, acople de modelos, selección modelo, simulacione preliminares.</t>
-  </si>
-  <si>
-    <t>PR0003</t>
-  </si>
-  <si>
-    <t>1208178-000-ZWS-0008 Inception Report final.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0023/02_PRODUCTOS/Informes Deltares/Informes anteriores/1208178-000-ZWS-0008 Inception Report final.pdf</t>
-  </si>
-  <si>
-    <t>Paolo Reggiani</t>
-  </si>
-  <si>
-    <t>Mohamed Yossef</t>
-  </si>
-  <si>
-    <t>Eelco Verschelling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Informe presenta un contexto general sobre lo que hace Deltares en el proyecto, posteriormente describen morfológica y climáticamente la zona de interés, hace un resumen de estudios previos y plantea las necesidades para construir el modelo 1D-2D. Por último, distribuye y define tareas para el equipo de trabajo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El informe describe la primera aproximación a la construcción del modelo 1D-2D, describiendo morfológica y climáticamente la Mojana, así como mencionando los estudios hidráulicos anteriores realizados en esta zona y presenta los objetivos de la simulación, la adquisición de información y describe la información necesaria para poder implementar el modelo, tal como un modelo digital del terreno, secciones transversales, un modelo hidrológico, entre otros. </t>
-  </si>
-  <si>
-    <t>La calidad de los datos digitales de terreno es insuficiente, lo que podría limitar la precisión del modelo hidrodinámico propuesto.</t>
-  </si>
-  <si>
-    <t>Reporte inicial de un modelo Sobek 1D-2D</t>
-  </si>
-  <si>
-    <t>PR0004</t>
-  </si>
-  <si>
-    <t>1206824-000-ZWS-0017-v3-Flood risk management for La Mojana.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0023/02_PRODUCTOS/1206824-000-ZWS-0017-v3-Flood risk management for La Mojana.pdf</t>
-  </si>
-  <si>
-    <t>Erik Mosselman</t>
-  </si>
-  <si>
-    <t>Matthijs Kok</t>
-  </si>
-  <si>
-    <t>Hans Leenen</t>
-  </si>
-  <si>
-    <t>El informe describe recomendaciones realizadas por el equipo holandés de Deltares sobre informes existentes de la Universidad Nacional, desde recomendaciones específicas, generales y a corto plazo.</t>
-  </si>
-  <si>
-    <t>El informe presenta una descripción y recomendaciones sobre estudios de la Universidad Nacional, en principio específicas, sobre la hidrología, modelo hidrológico, el Dique y el análisis de riesgo, posteriormente presenta recomendaciones generales, planteando el cómo se hacen las cosas en Holanda y por último, recomendaciones a corto plazo.</t>
-  </si>
-  <si>
-    <t>Se evidencia la falta de un enfoque completamente basado en el riesgo y la ausencia de normas claras para la construcción de diques en Colombia, lo que podría comprometer la efectividad de las recomendaciones . Además, aunque se presentan datos relevantes sobre las características de los caudales y eventos extremos, el documento podría beneficiarse de una mayor profundización en la relación entre las dinámicas hídricas de La Mojana y sus ríos adyacentes</t>
-  </si>
-  <si>
-    <t>Gestión de riesgo de inundaciones, recomendaciones, Informes Universidad Nacional.</t>
-  </si>
-  <si>
-    <t>PR0005</t>
-  </si>
-  <si>
-    <t>1208178-000-ZWS-0028-r-La Mojana Flood Study.pdf</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0023/02_PRODUCTOS/Informes Deltares/Informe de Calibracion/1208178-000-ZWS-0028-r-La Mojana Flood Study.pdf</t>
-  </si>
-  <si>
-    <t>Informe de calibración del modelo hidrodinámico 1D-2D con su ajuste de parámetros permitiendo alcanzar los mejores ajustes entre observados y simulados dentro del Estudio de Inundación de La Mojana.</t>
+    <t>Informe de calibración del modelo hidrodinámico 1D-2D con su ajuste de parámetros, permitiendo alcanzar los mejores ajustes entre observados y simulados dentro del Estudio de Inundación de La Mojana.</t>
   </si>
   <si>
     <t>Señala las características geográficas, hidrográfica y climática de la región de La Mojana. La simulación utiliza tres modelos: 1 hidrológico tipo lluvia-escorrentía, 1 modelo hidráulico 1D de ríos y caños y 1 modelo hidráulico 2D de inundación de la región.</t>
@@ -236,7 +236,7 @@
     <t>El informe presenta diferentes manchas de inundación para diferentes periodos de retorno con un máximo de 80 años, a pesar que en la recomendaciones de otro informe del proyecto se presenta que es un periodo de retorno bajo para esta zona geográfica</t>
   </si>
   <si>
-    <t>Flood Study, Inundaciones, Niveles, Sobek, Calibración. 1D, 2D. Modelo hidrodinámico.</t>
+    <t>Flood study, inundaciones, niveles, sobek, calibración. 1D, 2D, modelo hidrodinámico</t>
   </si>
   <si>
     <t>PR0006</t>
@@ -248,24 +248,25 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0023/02_PRODUCTOS/Informes Deltares/Informe final/1208178-000-ZWS-0038-r-La Mojana Overall report_DM.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">Este informe describe en detalle el desarrollo del modelo 1D construido en el software SOBEK para La Mojana. 1). Inicia haciendo una descripción de los estudios previos realizados en el área de interés; 2). Se hace una descripción de la selección del modelo hidrológico e hidrodinámico y se exponen las razones de su elección; 3). Se analizan las series de tiempo y observaciones necesarias para la calibración y validación de los modelos; 4). Se describe la información espacial utilizada, centrándose principalmente en el DTM y las modificaciones realizadas para su construcción y ajuste; 5). Se presenta la configuración del modelo para su ejecución; 6). Se aplica el proceso de calibración; 7). Se evalúan los escenarios de simulación; 8). Se plantean las estrategias de mitigación de inundaciones; 9). Finalmente, se evalúan y presentan los efectos que tendrían las estrategias de mitigación implementadas.          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debido a las inundaciones ocurridas por la ola invernal del año 2010 en la Mojana, se designó esta zona como una de las áreas prioritarias para implementar medidas de prevención de inundaciones. El gobierno anunció un amplio programa de inversiones, que se centró en la mejora de la seguridad del agua, la construcción de infraestructura, la promoción de la ganadería, la reforestación y el desarrollo socioeconómico._x000D_
-El objetivo general del estudio es construir un modelo que pueda usarse para: 1). Proporcionar una visión general del comportamiento hidráulico del sistema de humedales Río Cauca - Río San Jorge - La Mojana en la escala temporal típica de eventos de inundación individuales; 2). Preparar mapas de peligro de inundación para diferentes inundaciones de diseño para los siguientes períodos de retorno; 3). Estudiar el riesgo y el alcance de las inundaciones debido a diferentes escenarios de desbordamiento, ruptura de diques, operación de embalses y similares; 4). Estimar el efecto de las medidas de mitigación de inundaciones; 5). Investigar la eficacia de diferentes medidas para reducir la extensión de las inundaciones; 6). Evaluar diferentes estrategias de gestión de recursos hídricos, incluido el agua; 7). Operaciones de distribución o de embalses; y 8). Proporcionar condiciones de contorno para modelos detallados locales que se ejecutan en 2D o incluso 3D. Esto se puede hacer para modelos hidrodinámicos y morfológicos._x000D_
+    <t>Este informe describe en detalle el desarrollo del modelo 1D construido en el software SOBEK para La Mojana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debido a las inundaciones ocurridas por la ola invernal del año 2010 en la Mojana, se designó esta zona como una de las áreas prioritarias para implementar medidas de prevención de inundaciones. El gobierno anunció un amplio programa de inversiones, que se centró en la mejora de la seguridad del agua, la construcción de infraestructura, la promoción de la ganadería, la reforestación y el desarrollo socioeconómico.
+El objetivo general del estudio es construir un modelo que pueda usarse para: 1). Proporcionar una visión general del comportamiento hidráulico del sistema de humedales Río Cauca - Río San Jorge - La Mojana en la escala temporal típica de eventos de inundación individuales; 2). Preparar mapas de peligro de inundación para diferentes inundaciones de diseño para los siguientes períodos de retorno; 3). Estudiar el riesgo y el alcance de las inundaciones debido a diferentes escenarios de desbordamiento, ruptura de diques, operación de embalses y similares; 4). Estimar el efecto de las medidas de mitigación de inundaciones; 5). Investigar la eficacia de diferentes medidas para reducir la extensión de las inundaciones; 6). Evaluar diferentes estrategias de gestión de recursos hídricos, incluido el agua; 7). Operaciones de distribución o de embalses; y 8). Proporcionar condiciones de contorno para modelos detallados locales que se ejecutan en 2D o incluso 3D. Esto se puede hacer para modelos hidrodinámicos y morfológicos.
+El modelo 1D se construyó con el softwae SOBEK.  El estudio inicia  haciendo una descripción de los estudios previos realizados en el área de interés. Luego, sSe hace una descripción de la selección del modelo hidrológico e hidrodinámico y se exponen las razones de su elección. Se analizan las series de tiempo y observaciones necesarias para la calibración y validación de los modelos. Se describe la información espacial utilizada, centrándose principalmente en el DTM y las modificaciones realizadas para su construcción y ajuste. Se presenta la configuración del modelo para su ejecución. Se calibra y se ecalúan los escenarios de simulación. Se plantean las estrategias de mitigación de inundaciones. Finalmente, se evalúan y presentan los efectos que tendrían las estrategias de mitigación implementadas.          
 </t>
   </si>
   <si>
     <t>El informe necesita un análisis más detallado de costos y consecuencias para determinar la mejor solución</t>
   </si>
   <si>
-    <t>Construcción de modelos, calibración, situación actual, estrategias, medidas, mapas de inundaciones, SOBEK RR, La Mojana, Estudio de Inundaciones</t>
+    <t>Construcción de modelos, calibración, situación actual, estrategias, medidas, mapas de inundaciones, SOBEK RR, La Mojana, estudio de inundaciones</t>
   </si>
   <si>
     <t>PR0007</t>
   </si>
   <si>
-    <t>1208178-000-ZWS-0036-r-La Mojana Flood Study Analysis of strategies.pdf</t>
+    <t xml:space="preserve">1208178-000-ZWS-0036-r-La Mojana Flood Study Analysis of strategies </t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0023/02_PRODUCTOS/Informes Deltares/Informe de analisis de alternativas de intervencion/1208178-000-ZWS-0036-r-La Mojana Flood Study Analysis of strategies.pdf</t>
@@ -274,20 +275,20 @@
     <t xml:space="preserve">El principal objetivo del documento es analizar diferentes estrategias para reducir los riesgos de inundación en la región de La Mojana. Se busca proporcionar una base para el diseño de un conjunto integral de medidas que puedan ser implementadas para mejorar la seguridad hídrica y mitigar el impacto de futuras inundaciones.  También presenta un análisis detallado de tres estrategias principales para mitigar los riesgos de inundación en la región de La Mojana, Colombia, tras las devastadoras inundaciones de 2010. A través de un enfoque técnico y metodológico, se busca proporcionar soluciones efectivas que mejoren la seguridad hídrica y la resiliencia de la comunidad. </t>
   </si>
   <si>
-    <t>En el informe se presentan  tres alternativas para afrontar la inundación: 1. Estrategia de Aumento de la Altura de los Diques: Se concluye que elevar los diques existentes puede ser efectivo en áreas específicas, pero su impacto es limitado a las proximidades de las estructuras. Esta estrategia por sí sola no es suficiente para abordar el problema de inundaciones en toda la región. 2. Diques con Estructuras de Desbordamiento y Ampliación de Caños: Esta estrategia se identifica como una solución viable, especialmente en el sur de La Mojana. La combinación de diques elevados con estructuras de desbordamiento y la mejora de la capacidad de los caños puede reducir significativamente el riesgo de inundación. Se recomienda realizar un análisis de optimización para determinar las ubicaciones más efectivas para las estructuras de desbordamiento y la ampliación de los caños. 3. Áreas de Inundación Controlada: La implementación de áreas designadas para inundaciones puede ser una medida efectiva para aliviar la presión sobre los diques y los sistemas de drenaje. Esta estrategia es particularmente relevante para la parte norte de La Mojana, donde se puede reducir el área inundada.</t>
+    <t>El principal objetivo del documento es analizar diferentes estrategias para reducir los riesgos de inundación en la región de La Mojana. Se busca proporcionar una base para el diseño de un conjunto integral de medidas que puedan ser implementadas para mejorar la seguridad hídrica y mitigar el impacto de futuras inundaciones. Se presentan tres alternativas para afrontar la inundación: 1. Estrategia de Aumento de la Altura de los Diques: Se concluye que elevar los diques existentes puede ser efectivo en áreas específicas, pero su impacto es limitado a las proximidades de las estructuras. Esta estrategia por sí sola no es suficiente para abordar el problema de inundaciones en toda la región. 2. Diques con Estructuras de Desbordamiento y Ampliación de Caños: Esta estrategia se identifica como una solución viable, especialmente en el sur de La Mojana. La combinación de diques elevados con estructuras de desbordamiento y la mejora de la capacidad de los caños puede reducir significativamente el riesgo de inundación. Se recomienda realizar un análisis de optimización para determinar las ubicaciones más efectivas para las estructuras de desbordamiento y la ampliación de los caños. 3. Áreas de Inundación Controlada: La implementación de áreas designadas para inundaciones puede ser una medida efectiva para aliviar la presión sobre los diques y los sistemas de drenaje. Esta estrategia es particularmente relevante para la parte norte de La Mojana, donde se puede reducir el área inundada.</t>
   </si>
   <si>
     <t xml:space="preserve">El informe presenta limitaciones como la falta de datos actualizados en ciertas secciones y la necesidad de un análisis más profundo sobre los costos y beneficios de las estrategias propuestas. </t>
   </si>
   <si>
-    <t>La Mojana, Inundaciones, Modelado Hidrodinámico, Calibración de Modelos, Río Cauca, Río San Jorge, Prevención de Inundaciones, Infraestructura Hidráulica, Capacitación Técnica, Gestión de Recursos Hídricos</t>
+    <t>La Mojana, inundaciones, modelado hidrodinámico, calibración de modelos, Río Cauca, Río San Jorge, prevención de inundaciones, infraestructura hidráulica, capacitación técnica, Gestión de Recursos Hídricos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,12 +311,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -385,16 +392,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -403,12 +413,6 @@
   <dxfs count="23">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -720,15 +724,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -736,10 +731,25 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -755,26 +765,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R8" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="5" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="3" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1046,10 +1056,10 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -1058,459 +1068,459 @@
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>2014</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2">
         <v>2014</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>39</v>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2014</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>49</v>
+      <c r="N5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:18" ht="24.75" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2014</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>59</v>
+      <c r="N6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="3">
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2">
         <v>2015</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="6" t="s">
+      <c r="O8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1524,6 +1534,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1667,37 +1686,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
--- a/P0023/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0023/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28317"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0023/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{68CE44C6-ED3D-4601-80EF-E8F95DFD2705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51123897-EC2D-4D1B-BA0A-B10A02341744}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{68CE44C6-ED3D-4601-80EF-E8F95DFD2705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D988AE8-07B5-4573-987E-A2620778ACAF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1056,14 +1056,14 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
@@ -1534,15 +1534,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1686,10 +1677,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
--- a/P0023/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0023/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0023/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{68CE44C6-ED3D-4601-80EF-E8F95DFD2705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D988AE8-07B5-4573-987E-A2620778ACAF}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{68CE44C6-ED3D-4601-80EF-E8F95DFD2705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8645910-42F7-40E9-8617-5D90D2248C10}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1055,9 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
@@ -1356,7 +1354,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="24.75" customHeight="1">
+    <row r="6" spans="1:18" ht="15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1534,6 +1532,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1677,19 +1684,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>